--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FCE138-813F-B94A-8FA9-868479DE94AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="460" windowWidth="18020" windowHeight="18200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,71 +22,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="18">
   <si>
-    <t>rnaDate</t>
-  </si>
-  <si>
-    <t>rnaPreparer</t>
-  </si>
-  <si>
-    <t>rnaSampleNumber</t>
-  </si>
-  <si>
-    <t>s1cDNADate</t>
-  </si>
-  <si>
-    <t>s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t>s1Protocol</t>
-  </si>
-  <si>
-    <t>roboticS1Prep</t>
-  </si>
-  <si>
-    <t>s1PrimerSeq</t>
-  </si>
-  <si>
-    <t>01.23.20</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>01.27.20</t>
-  </si>
-  <si>
-    <t>NEBNextPoly(A)E7490</t>
-  </si>
-  <si>
-    <t>E7420</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>01.25.20</t>
-  </si>
-  <si>
-    <t>S.ZHANG</t>
+    <t xml:space="preserve">rnaDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaSampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticS1Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1PrimerSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.23.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.27.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.25.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.ZHANG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,17 +126,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,7 +136,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -142,344 +144,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,14 +272,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -543,16 +288,17 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="b">
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -575,14 +321,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -591,30 +337,31 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="b">
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -623,30 +370,31 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="b">
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -655,30 +403,31 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="b">
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -687,30 +436,31 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="b">
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -719,30 +469,31 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="b">
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -751,30 +502,31 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="b">
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -783,30 +535,31 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="b">
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -815,30 +568,31 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="b">
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -847,30 +601,31 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="b">
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -879,30 +634,31 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5" t="b">
+      <c r="F12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -911,30 +667,31 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5" t="b">
+      <c r="F13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -943,30 +700,31 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5" t="b">
+      <c r="F14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -975,30 +733,31 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5" t="b">
+      <c r="F15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1007,30 +766,31 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="b">
+      <c r="F16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1039,30 +799,31 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5" t="b">
+      <c r="F17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1071,30 +832,31 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5" t="b">
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1103,30 +865,31 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="5" t="b">
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1135,30 +898,31 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="5" t="b">
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1167,30 +931,31 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="5" t="b">
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1199,30 +964,31 @@
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="5" t="b">
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1231,30 +997,31 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="5" t="b">
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1263,30 +1030,31 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="5" t="b">
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1295,30 +1063,31 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="5" t="b">
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1327,30 +1096,31 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="5" t="b">
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1359,30 +1129,31 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="5" t="b">
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1391,30 +1162,31 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="5" t="b">
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1423,30 +1195,31 @@
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="5" t="b">
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1455,30 +1228,31 @@
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="5" t="b">
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1487,30 +1261,31 @@
       <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="5" t="b">
+      <c r="G31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1519,30 +1294,31 @@
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="5" t="b">
+      <c r="G32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1551,30 +1327,31 @@
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="5" t="b">
+      <c r="G33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1583,30 +1360,31 @@
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="5" t="b">
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1615,30 +1393,31 @@
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="5" t="b">
+      <c r="G35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1647,30 +1426,31 @@
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="5" t="b">
+      <c r="G36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1679,30 +1459,31 @@
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="5" t="b">
+      <c r="G37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1711,30 +1492,31 @@
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="5" t="b">
+      <c r="G38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1743,30 +1525,31 @@
       <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="5" t="b">
+      <c r="G39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1775,30 +1558,31 @@
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="5" t="b">
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1807,16 +1591,17 @@
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="5" t="b">
+      <c r="G41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -1824,7 +1609,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
@@ -80,8 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -169,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +192,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,7 +222,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.03"/>
@@ -297,8 +302,7 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -346,8 +350,7 @@
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -379,8 +382,7 @@
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -412,8 +414,7 @@
       <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -445,8 +446,7 @@
       <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -478,8 +478,7 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -511,8 +510,7 @@
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -544,8 +542,7 @@
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -577,8 +574,7 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -610,8 +606,7 @@
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -643,8 +638,7 @@
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -676,8 +670,7 @@
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -709,8 +702,7 @@
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -742,8 +734,7 @@
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -775,8 +766,7 @@
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -808,8 +798,7 @@
       <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -841,8 +830,7 @@
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -874,8 +862,7 @@
       <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -907,8 +894,7 @@
       <c r="H20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -940,8 +926,7 @@
       <c r="H21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -973,8 +958,7 @@
       <c r="H22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1006,8 +990,7 @@
       <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1039,8 +1022,7 @@
       <c r="H24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1072,8 +1054,7 @@
       <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1105,8 +1086,7 @@
       <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1138,8 +1118,7 @@
       <c r="H27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1171,8 +1150,7 @@
       <c r="H28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1204,8 +1182,7 @@
       <c r="H29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1237,8 +1214,7 @@
       <c r="H30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1270,8 +1246,7 @@
       <c r="H31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1303,8 +1278,7 @@
       <c r="H32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1336,8 +1310,7 @@
       <c r="H33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1369,8 +1342,7 @@
       <c r="H34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1402,8 +1374,7 @@
       <c r="H35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1435,8 +1406,7 @@
       <c r="H36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1468,8 +1438,7 @@
       <c r="H37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I37" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1501,8 +1470,7 @@
       <c r="H38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I38" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -1534,8 +1502,7 @@
       <c r="H39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I39" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -1567,8 +1534,7 @@
       <c r="H40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -1600,8 +1566,7 @@
       <c r="H41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
@@ -219,7 +219,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +302,8 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="b">
+      <c r="I2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -350,7 +351,8 @@
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="b">
+      <c r="I3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -382,7 +384,8 @@
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="b">
+      <c r="I4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -414,7 +417,8 @@
       <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -446,7 +450,8 @@
       <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -478,7 +483,8 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="b">
+      <c r="I7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -510,7 +516,8 @@
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="b">
+      <c r="I8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -542,7 +549,8 @@
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="b">
+      <c r="I9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -574,7 +582,8 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="b">
+      <c r="I10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -606,7 +615,8 @@
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="b">
+      <c r="I11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -638,7 +648,8 @@
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="b">
+      <c r="I12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -670,7 +681,8 @@
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="b">
+      <c r="I13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -702,7 +714,8 @@
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="6" t="b">
+      <c r="I14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -734,7 +747,8 @@
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="6" t="b">
+      <c r="I15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -766,7 +780,8 @@
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="6" t="b">
+      <c r="I16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -798,7 +813,8 @@
       <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="6" t="b">
+      <c r="I17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -830,7 +846,8 @@
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="6" t="b">
+      <c r="I18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -862,7 +879,8 @@
       <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="6" t="b">
+      <c r="I19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -894,7 +912,8 @@
       <c r="H20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="6" t="b">
+      <c r="I20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -926,7 +945,8 @@
       <c r="H21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="6" t="b">
+      <c r="I21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -958,7 +978,8 @@
       <c r="H22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="6" t="b">
+      <c r="I22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -990,7 +1011,8 @@
       <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="6" t="b">
+      <c r="I23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1022,7 +1044,8 @@
       <c r="H24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="6" t="b">
+      <c r="I24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1054,7 +1077,8 @@
       <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="6" t="b">
+      <c r="I25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1086,7 +1110,8 @@
       <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="6" t="b">
+      <c r="I26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1118,7 +1143,8 @@
       <c r="H27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="6" t="b">
+      <c r="I27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1150,7 +1176,8 @@
       <c r="H28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="6" t="b">
+      <c r="I28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1182,7 +1209,8 @@
       <c r="H29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="6" t="b">
+      <c r="I29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1214,7 +1242,8 @@
       <c r="H30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="6" t="b">
+      <c r="I30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1246,7 +1275,8 @@
       <c r="H31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="6" t="b">
+      <c r="I31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1278,7 +1308,8 @@
       <c r="H32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="6" t="b">
+      <c r="I32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1310,7 +1341,8 @@
       <c r="H33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="6" t="b">
+      <c r="I33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1342,7 +1374,8 @@
       <c r="H34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="6" t="b">
+      <c r="I34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1374,7 +1407,8 @@
       <c r="H35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="6" t="b">
+      <c r="I35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1406,7 +1440,8 @@
       <c r="H36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="6" t="b">
+      <c r="I36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1438,7 +1473,8 @@
       <c r="H37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="6" t="b">
+      <c r="I37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1470,7 +1506,8 @@
       <c r="H38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="6" t="b">
+      <c r="I38" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -1502,7 +1539,8 @@
       <c r="H39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="6" t="b">
+      <c r="I39" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -1534,7 +1572,8 @@
       <c r="H40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="6" t="b">
+      <c r="I40" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -1566,7 +1605,8 @@
       <c r="H41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="6" t="b">
+      <c r="I41" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.27.20.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">01.27.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -219,7 +219,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
